--- a/src/attributions/attributions_ig_traj_186.xlsx
+++ b/src/attributions/attributions_ig_traj_186.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
         <v>-0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
         <v>-0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
         <v>-0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
         <v>-0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX2" t="n">
         <v>-0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
         <v>-0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
         <v>-0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY2" t="n">
         <v>-0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
         <v>-0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ2" t="n">
         <v>-0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
         <v>-0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
         <v>-0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ2" t="n">
         <v>-0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
         <v>-0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
         <v>-0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT2" t="n">
         <v>-0</v>
@@ -1573,79 +1573,79 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3622146258262938</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.3300717891832406</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1793837150010025</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02452658143705866</v>
+        <v>-0.0715559603195321</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.2745683250917698</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1652244720155703</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.1230731016746956</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.04212806649169118</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.03732672159000903</v>
+        <v>-0.01474076489099802</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>-0.05538157913260666</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02788415933388383</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.05059529695785629</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.06834516439435778</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.2613757035114532</v>
+        <v>-0.0844461271205503</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0.01200920228547674</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
         <v>-0</v>
@@ -1654,52 +1654,52 @@
         <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05385677610962653</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.07484945483184587</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.09210835458873642</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1856292017825588</v>
+        <v>0.1206977934125089</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0.04866460691813951</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1556563407643842</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.07119544544902322</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.03556718400512485</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.07712663593525128</v>
+        <v>0.03811735484944442</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>-0.1376088056272396</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1708,76 +1708,76 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3690825243181644</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.4130726967703659</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.2328891180428747</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.03759657244426636</v>
+        <v>-0.1443459722311549</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.4412848939116525</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1304283003326556</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.1506377607313553</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.09144897580685009</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.06666492274406241</v>
+        <v>-0.05347675687943369</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>-0.1049832368429894</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.08747630694866887</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.001241521179766978</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.08954973662913375</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.2087104032442807</v>
+        <v>-0.04595569827406344</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.004874259048764848</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
@@ -1786,28 +1786,28 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.2367393401728441</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.1181577806685599</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.0675573698228621</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.02837479587845314</v>
+        <v>-0.1058184543848123</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>-0.132063943881062</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.1674111921109864</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.1418013593217869</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.06065119480795581</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.0137450155996768</v>
+        <v>0.01988724322941855</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.1225837213827503</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.01656340446658271</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.002577051405407591</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.02666022370082832</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.1548435057009694</v>
+        <v>0.03955295125988306</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0.01071049945630149</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
@@ -1870,25 +1870,25 @@
         <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.1441243892493501</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.1203442273119596</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.07267318497174564</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.08233229786565462</v>
+        <v>0.0008843008533723796</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.1376368356121673</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>-0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.08073213624286896</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>0.05035492395690995</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.02162622364435758</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.01925141537857403</v>
+        <v>0.03946517650984013</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0.01075873510333086</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
@@ -1921,205 +1921,205 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0006502866231905847</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>0.01694941608757988</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.06243143218899023</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.02852481091985994</v>
+        <v>0.09948779961301946</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.01739172694419293</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.003043021633280144</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0.08197198364690433</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.002812231959575363</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1783407382359656</v>
+        <v>-0.02027926904204899</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0.006968121358906684</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.2709444994805368</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.1589320542997175</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.08751439280759728</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01896191314509256</v>
+        <v>-0.009299724234294622</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.1282868411446179</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.06972856418076849</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.07048993694833507</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.08589128688061565</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.04773405454069506</v>
+        <v>0.02324305345569702</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.08760133249433456</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.1570211340290264</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.1250621501543555</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.07099560512142415</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.0427799612671319</v>
+        <v>0.01800593781749402</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.1259000268523936</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.1293600722042835</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.06363759334031313</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.04678623395417895</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.0365840391088952</v>
+        <v>-0.07296059240200616</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.1420996786131228</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0.04324842369369955</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.2030709208053865</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.03204762235205073</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.08330507759902341</v>
+        <v>0.03702473033228432</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.09533563616206632</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.06609395836178894</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.07011451616897375</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.04631786487619016</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.05167880349454042</v>
       </c>
       <c r="GE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,49 +2711,49 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3249688693454453</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.06831910383453191</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.05172681507192196</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1005439398427806</v>
+        <v>-0.009974763584958232</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02484827276060669</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.15073569569261</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.02624043547660716</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.05184459024988976</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.09452976366640484</v>
+        <v>-0.006189820895266068</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.01860335630954559</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2765,22 +2765,22 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02610156345205603</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.002557930447763781</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.03413140893697698</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2341012049028366</v>
+        <v>-0.006635343022975433</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.00280216710336163</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -2789,82 +2789,82 @@
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04497690739396375</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.01394803877993088</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04113234831320583</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01045976477011194</v>
+        <v>0.02259180929602682</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0.0006241881313132925</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1069840498009864</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.003502043989700265</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.02636087698337197</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.06387751644532712</v>
+        <v>-0.01114783438537903</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.01730068416390367</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.2599411642893219</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.0830733600823514</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.06543637966018226</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.01523859910660704</v>
+        <v>-0.003642930806783595</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>-0.005465502619434911</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
@@ -2873,79 +2873,79 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.1128848751972999</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.02921474241784109</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.06818642698229886</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.04455489527858358</v>
+        <v>-0.01884703483625188</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.05016190856198541</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.04963937576982634</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.02959726640291917</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.05908532323777418</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1648513320873146</v>
+        <v>0.02778807925233992</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.003547692415347169</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1627101230030731</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.02889839929578373</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.02389883842930711</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.002912251479616976</v>
+        <v>0.004875607678371164</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.003972724829265086</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,325 +2954,325 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.1239769830686678</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.01913912600836496</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.04068815790895924</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.04131886537883311</v>
+        <v>-0.002135026085513022</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.0191973431909024</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.01326016226867364</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.007032614803363366</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0009126813651215316</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.1231354868206036</v>
+        <v>-0.006061434769953307</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.000731818718567445</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.1090539440934604</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01497062458752291</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.04398920983629639</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01390064208118782</v>
+        <v>0.002839177901422693</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.01854322392600371</v>
       </c>
       <c r="DB5" t="n">
         <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003823946941324834</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.00412168746430766</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0262947659001574</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.06804477802687349</v>
+        <v>0.01674462012801943</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.003772352168277471</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.02193377917066675</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.00554604599440869</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.007430510268137114</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.0294784672531671</v>
+        <v>-2.093883482958527e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.005960993096225278</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0.001209010905532809</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.0176974282755442</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.01125350948183287</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.08901386448884836</v>
+        <v>-0.03087229249521856</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>6.542452480773894e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.189463868859795</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.01504787102422738</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.03682698912704346</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.07676892874835257</v>
+        <v>-0.0007990531468292599</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.01143179878931843</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.04531465056752464</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.01519073328862748</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.04415319545018527</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.1056816688518382</v>
+        <v>0.006855349999551023</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.005903041009256044</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.1085974033760415</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01728704629321368</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0433184753210078</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.001511972013577369</v>
+        <v>0.003339377789078943</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.02028736289821969</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.1282495582656468</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.0004674520848992576</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0382532065415037</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.02768739027371367</v>
+        <v>-0.02510106216717171</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01948008075012654</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.007953048814347677</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.001677908513837637</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01791098668058228</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.0003857783678417467</v>
+        <v>0.0004472156851491596</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.007819597312654736</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.09249804463699274</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02765970628649874</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001799045395938155</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.005487899020820634</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4249505558087866</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.1192695503331691</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1158557875426958</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04546298990491583</v>
+        <v>-0.004982774638471177</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.08608114004544752</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3304,25 +3304,25 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2516815998908333</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.05962128982855201</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.111661777305236</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.09859240635220932</v>
+        <v>-0.003535902598285649</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.06312765184945848</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3331,55 +3331,55 @@
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05714854427245811</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.004431461994426994</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.08508285166921499</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.2789866064058089</v>
+        <v>-0.01296496711067889</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.005081038962445286</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02490804649818898</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.02188895936242346</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05910810553540168</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03685687933151877</v>
+        <v>0.02406142852887019</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.0003753358165765185</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3388,25 +3388,25 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1382670060744153</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.02069457914407428</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.03033451272261865</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.02839581587123256</v>
+        <v>-0.0004273440322982091</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.03721583594612461</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>-0</v>
@@ -3415,25 +3415,25 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.3164582931246231</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.1258426774079187</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.1685746424630072</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.01701206469018237</v>
+        <v>0.006908473540101982</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.08890924301077834</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
@@ -3442,25 +3442,25 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1436992785340087</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.0587340061264499</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.07921263940973666</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.03126538321158507</v>
+        <v>-0.03067984100595689</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.07072634723408817</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>-0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.05401199845189843</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.05910564932944225</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.06901850322550102</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.2206133343199539</v>
+        <v>0.02494336138433626</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>-0.00180119999719473</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3496,52 +3496,52 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.2084478958835565</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.04490659733770334</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.06355850106805049</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.003901461896099599</v>
+        <v>-0.001527363846823011</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.02697430343359734</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.1521150884616183</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.0319169106713487</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.05423476060183986</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.03002224450076471</v>
+        <v>-0.001763986933781758</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0.0358936002466208</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,49 +3550,49 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.006283868861615529</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.006001989059289829</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.004168633885016352</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
         <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.1350030683263787</v>
+        <v>0.006744193826428356</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.004978880749996592</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.1285942574270319</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.02431601008854693</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.05642554238711504</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.05470568690228633</v>
+        <v>0.003362219218195228</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.03547565415514608</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3601,55 +3601,55 @@
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.02867087598942914</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.01199880622860433</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.0223782827502601</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.006093492104803938</v>
+        <v>0.005498104566310614</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.007104855500492164</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.026695721717778</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.0208047224024852</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.001902061148012948</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.05188882502200193</v>
+        <v>0.01339464705080645</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.01277898081614594</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3658,106 +3658,106 @@
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-5.096424490889811e-05</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.004350667914788425</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.00975515317590315</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.1292823909722564</v>
+        <v>-0.02354593776513374</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>0.003223285706420582</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.2499476871443284</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.0146741718267519</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.06403832381272523</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.08617484546385515</v>
+        <v>0.001678417970468722</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.02735573020479543</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.051763476839327</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.01782724179966334</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.04005803314096593</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.06420879491820347</v>
+        <v>0.00870469510326298</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.02496973415082019</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.1279807395144222</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.02227044277997413</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.05603360489047007</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.02815500744115054</v>
+        <v>0.001053424043881342</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.03617661906597879</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
         <v>0</v>
@@ -3766,82 +3766,82 @@
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.1359467839593859</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.01252046508404713</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.04408652811009818</v>
+        <v>0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.02993705437434671</v>
+        <v>-0.02703584165179541</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02045161778165661</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0.01618415124022636</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.00341873829493548</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.0338931320014119</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.002233071560692754</v>
+        <v>0.00179320043627667</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.0283326344005647</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.09147596531784642</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.02819657562732001</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0.04276047911779843</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.01413429326605454</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ7" t="n">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI7" t="n">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
@@ -4418,52 +4418,52 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4467977080218022</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.2470673339675286</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1042578759664617</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.07107631889004938</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.005118956038694459</v>
+        <v>-0.06245754275723919</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.09227178167552343</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0006195107347289719</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3981774144075521</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.1667406778862869</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.09734325867343868</v>
+        <v>-0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.06228561752228515</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.09681637880134555</v>
+        <v>-0.03925757719733591</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.06425434348144109</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.05445784811222087</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4472,133 +4472,133 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0467740167898052</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.04862488334435178</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.08688141190382592</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.01413004267081692</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1650737793611985</v>
+        <v>0.04084464383334924</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.02532428950620072</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.09387642072497056</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.009411184063814922</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.01253982037823595</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.06514863997989605</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.04593867599148094</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02730037020434258</v>
+        <v>-0.01574969571416014</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.02241273800282759</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1055767746255316</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1395689324238394</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0.0003858439164005091</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0131866716552797</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.02732846244017635</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.009352431343880517</v>
+        <v>-0.01661321913402619</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.03820053983764499</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01342338297924756</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3100162805426871</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.3233631004974464</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.09547298223086438</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>-0.01289951722344667</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.02150703835294966</v>
+        <v>0.04497915155305268</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0354648694456766</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.06147136844651096</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1500256246562843</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0405671329837352</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.05863178796557721</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.03952296273216901</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.04772244080720935</v>
+        <v>-0.08761817847448032</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.1341121543469001</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.04217582699154191</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,52 +4607,52 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.07536021668595766</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.06757601324394891</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.03637909082595295</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.04399398745384305</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1577635261035271</v>
+        <v>0.07550316154742628</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.01480205993569667</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.04195555717213734</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.186572069650172</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.1144148588358406</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.03824797958947474</v>
+        <v>-0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.02741738873750252</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.02761401978293296</v>
+        <v>-0.01228448887703824</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>0.02341035399114451</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01517730218626541</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
@@ -4661,133 +4661,133 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.1477233970863973</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.05962476350862466</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.03650343253104921</v>
+        <v>-0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.004705178997843965</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.01650652056776619</v>
+        <v>0.0005514138327993092</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.04811097096076427</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.01096674485364826</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.008164696345851914</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.0255097465537034</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.003511769370514073</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>-0.03803183513895786</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.1099395272471956</v>
+        <v>-0.03411626555440519</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.0260685742945129</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.0486253644246208</v>
+        <v>0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.1342596968743622</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.05150696782723785</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.04093305121864151</v>
+        <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.02305801598471924</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.04457101109303485</v>
+        <v>0.005692642630525237</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.05542675214326389</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.006963715245992889</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0356751490531511</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.01199060467535498</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.01106724877149214</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.08295992851542498</v>
       </c>
       <c r="DI8" t="n">
-        <v>3.345101348364761e-05</v>
+        <v>-0.01088382116913133</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.005521887153297217</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.02019154536053074</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.03461196790462957</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.040410780575336</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.008484760992947617</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0.03242016509820098</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.06550052932917635</v>
+        <v>0.01984899235352522</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0.01996661111591903</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.04160631597796265</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
@@ -4796,25 +4796,25 @@
         <v>-0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.01907948889792128</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.01388595666494536</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.0309052166577016</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.001105128388854686</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.01765915682814945</v>
+        <v>-0.0469621417259255</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>-0.004174700878514094</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0003309473196538598</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
@@ -4823,174 +4823,174 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.2460446288313414</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.09296548194664334</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.03974550078024425</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.03680061152902687</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.03360695968932395</v>
+        <v>0.0425160297853406</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.01771633204229689</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0.06672583520076404</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.0338679102186555</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.03281044123292057</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.02907560554100273</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0.004028699809145656</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.06237799214624869</v>
+        <v>0.002669262721220153</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.07442960411075553</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0172415371966463</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.1288801037865623</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.04773103287549313</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.04173982320982485</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.00481349260200125</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.02561918835923875</v>
+        <v>0.0188130287353303</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.04687407699640002</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.009873440926949561</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.134533641045217</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0.04300894749619478</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.05501199407892059</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.0393158795368729</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.08583017493909187</v>
+        <v>-0.002415322640182559</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.0148294699936243</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.05392911680810512</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.02244937708581583</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>0.0100187486740825</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.02199859740027993</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0.00981322342514185</v>
       </c>
       <c r="FT8" t="n">
-        <v>3.308961277914105e-05</v>
+        <v>0.00580302531620773</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.002347975484260045</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0.01089422680470988</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.1095415697675163</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.03034323131626698</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.04518128469678603</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.02736112547546804</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.002133712833372655</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.02378611766403207</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -5176,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
@@ -5500,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5556,22 +5556,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3101888047839074</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.6424650953820997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4625879617011305</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2233580283665954</v>
+        <v>0.2685226564549291</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.9193095657505658</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
@@ -5580,52 +5580,52 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2043163546824068</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.3521873768857793</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4248640900436157</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
         <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.004918078772423901</v>
+        <v>0.0337381006801869</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0.6317050480029249</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.01428237906946379</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0.128445876908211</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1252735087993809</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1567834771949707</v>
+        <v>0.1118856017212577</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>-0.008831151732134468</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
@@ -5637,103 +5637,103 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.01415437799479667</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0.1997433967066109</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01713394368420866</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1479412964339116</v>
+        <v>0.0314248152168953</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.1740990145579843</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.0966614942688991</v>
+        <v>-0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.128026019410889</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.07784940944185315</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02043928156939762</v>
+        <v>-0.09935156713526465</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.2666855287697762</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>-0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.167099859451111</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>-0.398894292586535</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.3053324055707937</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03985105949963223</v>
+        <v>0.4293323303842947</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0.8575942788005543</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.06519478410301008</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.3650158792477014</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.1673683317631584</v>
+        <v>-0</v>
       </c>
       <c r="BF10" t="n">
         <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.2960706528373968</v>
+        <v>0.2350099665664009</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>0.1705635004995789</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
@@ -5742,82 +5742,82 @@
         <v>-0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.05890694209684041</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>-0.1446220171567522</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.09831123195788992</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.1861079009265767</v>
+        <v>-0.08195136223958766</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0.02346670112135132</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
         <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.1532186172397151</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>-0.2426577409464317</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.1489104865489293</v>
+        <v>-0</v>
       </c>
       <c r="BX10" t="n">
         <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.07712071945591539</v>
+        <v>0.1056054733768832</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>0.3073572687405512</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.1193213970869875</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>0.1778754462370792</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.1013877195613627</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01849592831908872</v>
+        <v>-0.03965049989464613</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>-0.1785659787290148</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>-0</v>
@@ -5826,25 +5826,25 @@
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.007445575018711581</v>
+        <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>0.03458372351868977</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.03194496393844352</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0702210351397496</v>
+        <v>-0.2029424810957945</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>0.1026001211102127</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
         <v>0</v>
@@ -5853,22 +5853,22 @@
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1069287007331399</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>0.1401937513139744</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.08937799118799897</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.06419362818812076</v>
+        <v>-0.08206863847373706</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0.2176066497201161</v>
       </c>
       <c r="DB10" t="n">
         <v>-0</v>
@@ -5877,109 +5877,109 @@
         <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0003194730502651294</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>-0.01477233800790321</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.01205989252456113</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.0344213845762967</v>
+        <v>-0.2480589590806219</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>0.03364010339362548</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.06605212669137348</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.08770862777594826</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.07765417942474098</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.0624312019662348</v>
+        <v>0.1126888890027417</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0.08901216480912105</v>
       </c>
       <c r="DT10" t="n">
         <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.01379779558510501</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>-0.1522823839599999</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0125702044405562</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02791866846417981</v>
+        <v>0.2801742088884288</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.08890246743956863</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.16352567783497</v>
+        <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.08209377798622129</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.134801164065684</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.04124833378609805</v>
+        <v>-0.1762178285275917</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>-0.1605178813127047</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
         <v>-0</v>
@@ -5988,22 +5988,22 @@
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.02851152049695268</v>
+        <v>-0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.1108124016204603</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.1023394626137021</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.03114179674411864</v>
+        <v>0.05478111683237148</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>0.005404402937911741</v>
       </c>
       <c r="EU10" t="n">
         <v>0</v>
@@ -6012,25 +6012,25 @@
         <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.1146158355068103</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>0.1603310960978765</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.08328128464319594</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.03854109784403955</v>
+        <v>-0.07409387888034562</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>-0.2201849284130288</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
@@ -6039,25 +6039,25 @@
         <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.06164812809935163</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.03473672545312253</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.09797188654480611</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06694332803370498</v>
+        <v>0.01399210106993324</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>-0.2096025653999178</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6066,43 +6066,43 @@
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.02739560390799043</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.02668543205346089</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.06084054862245681</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0340744160566064</v>
+        <v>-0.1264584963120524</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>-0.2822381290090588</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.001323912903553405</v>
+        <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>0.09953370577319758</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.1032516767602545</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>0.1004528293090282</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,181 +6128,181 @@
         <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1502369360554782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5276438565966444</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04260664156161936</v>
+        <v>-0.008927514244529059</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.09888545409318301</v>
       </c>
       <c r="G11" t="n">
         <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2053912803222791</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1271304598174303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.534593189131382</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1862594273227755</v>
+        <v>-0.01089835202521372</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.0783768492877772</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1715709343628721</v>
+        <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.01406664933599338</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.02002153873089085</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.07286028650148639</v>
+        <v>-0.01163174034852721</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01608143367400639</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.06513681350884354</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.01815333265299036</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01561581613985093</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.053321436030206</v>
+        <v>0.01138731084383792</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.01283653694787572</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1466638691059041</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0</v>
+        <v>0.009658263572920947</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1208860011627572</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.09528016964697773</v>
+        <v>-0.01273304547668335</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.04548744823212662</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.0115586546964898</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0</v>
+        <v>0.1131099322282011</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.2913311841342736</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0272133933364297</v>
+        <v>0.008046682939665597</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>-0.06413723359496366</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.1765410584692453</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.06271761649903757</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.2415723843272661</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.05054329914011572</v>
+        <v>-0.02778144072014075</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>-0.05478981845657747</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,25 +6311,25 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0.01186528188051917</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.04508534483846972</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.09581436919268467</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1483924250132673</v>
+        <v>0.01655350643874781</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.02159309678048069</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6338,52 +6338,52 @@
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.07810207488745761</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.06194934326115653</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1830294448543696</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.0341342573390131</v>
+        <v>0.00682530481898205</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.02522235716318174</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0.1571361669754661</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.03100320747669416</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.1323000472743045</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.05046647689231447</v>
+        <v>-0.003749707790733271</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0.02417479103891857</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
@@ -6392,52 +6392,52 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.04913118848359896</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.01509788203104848</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.01030556211491121</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0600111549706132</v>
+        <v>-0.007723560738313585</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.009780753569641436</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0.0235342964307517</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.02239171009081182</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.1100675204134944</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.01089551678403212</v>
+        <v>-0.002863624483164992</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.02814939522108042</v>
       </c>
       <c r="DB11" t="n">
         <v>-0</v>
@@ -6446,52 +6446,52 @@
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.04429659273263935</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>0.003836478699838737</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.003189676326170121</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01501580092272485</v>
+        <v>0.004091967992340899</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.01397420832442544</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01061847098817629</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>-0.01704503677658079</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.05675818142468071</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.01432876919768231</v>
+        <v>0.003286574396261566</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>0.007142852024274416</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6500,25 +6500,25 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0.06681339125680581</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0.03198524904296758</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.08054095878694917</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.002195117016848025</v>
+        <v>0.009290396532285415</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.01965276513794352</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,186 +6527,186 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0.05335393158783558</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.01623919462095659</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.1225867953844073</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.1258587359241362</v>
+        <v>0.004379925354965506</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.01378226225774321</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.03070759418028384</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>0.006708912287874588</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.07488890867944795</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.04572918069500698</v>
+        <v>-0.007923084315139784</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.001073093312886728</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.1306552980299497</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.02328791796884555</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.1231190029655368</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.03531795825575852</v>
+        <v>0.001756391519732766</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.03015991412076431</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.07883322476278093</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-4.77257699472737e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1502541495017113</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.05465465304028462</v>
+        <v>-0.01958520368550817</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0.03015035715780252</v>
       </c>
       <c r="FM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN11" t="n">
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.001523717053498538</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.0140895826239611</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.08254668399621905</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.1747766842071402</v>
+        <v>0.0262240450447144</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>-0.001126322255501285</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0.01114182825751627</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.01820012985231997</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.09605801233076024</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>-0.03639466012705586</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.09998991146362098</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3956126669660662</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>-0.3601578982504174</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0962405345034761</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.2033179747801306</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04744369794952605</v>
+        <v>0.229711924151425</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6715,25 +6715,25 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4221951851116985</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.3079370323486188</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1198841936056002</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.2301396272357279</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.2017068919527174</v>
+        <v>0.2602756491309543</v>
       </c>
       <c r="O12" t="n">
         <v>-0</v>
@@ -6748,19 +6748,19 @@
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03003752129737457</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>-0.09719281926230197</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0556898973319828</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.01366808264582559</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1896264411006669</v>
+        <v>-0.05190674432563599</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -6769,136 +6769,136 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>-0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.001594902049021576</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>-0.1558473339717582</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.03963432922237116</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.04539164880464687</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.04827537631213806</v>
+        <v>-0.03613701508554003</v>
       </c>
       <c r="AG12" t="n">
         <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.09212201282436477</v>
+        <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.04440189730239632</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.02077927869261271</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>0.03348037937026407</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03628700995185819</v>
+        <v>0.05712653909328923</v>
       </c>
       <c r="AP12" t="n">
         <v>-0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2486070418280192</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0.2664756077292114</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.07494350602227567</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.02375911508934116</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.04116561694311684</v>
+        <v>-0.01629993587220517</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.08063911688160839</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.007178569004002106</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.03111875715780613</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>0.1949730473314907</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.03210630812613535</v>
+        <v>0.2682629267318988</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK12" t="n">
         <v>-0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.03694098454046429</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>-0.09829628806691544</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.03126218208388129</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0.02423852839052141</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1217349335675372</v>
+        <v>-0.09607142166094602</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
@@ -6910,106 +6910,106 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.2142489465441767</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0.2074385373447977</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.05072344551630052</v>
+        <v>-0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.003980807508366734</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02087903338896321</v>
+        <v>0.04618738944653349</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.1009093268781327</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>0.084919599878391</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01596391052740906</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>-0.04658422953175845</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0261876378508443</v>
+        <v>-0.006309169201297392</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.02431135526686829</v>
+        <v>-0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.029695994560285</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.02260235407877834</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.07528839507227683</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.05163675316256529</v>
+        <v>0.08070675357246687</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.08779096908037402</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>0.07693777221437838</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.02122782797926233</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>-0.06177501692314585</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02470365088591075</v>
+        <v>-0.01336734236537262</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC12" t="n">
         <v>-0</v>
@@ -7018,19 +7018,19 @@
         <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.002694104053700593</v>
+        <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>0.1532591449652622</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.01949195466390226</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0.05279723234694482</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0004046238002785561</v>
+        <v>-0.006707620845180614</v>
       </c>
       <c r="DJ12" t="n">
         <v>-0</v>
@@ -7045,73 +7045,73 @@
         <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01604559195269695</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>0.05357204664258596</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.02707773814988851</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>0.0330964648968045</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.005157537862918736</v>
+        <v>0.06470831587381612</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.003409053395221784</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.07122573255063062</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.01609702583695711</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.06984165891264819</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.0411890152498008</v>
+        <v>0.04246859005333956</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC12" t="n">
         <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.1452903634529912</v>
+        <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>0.0535041488041897</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.02274666982945</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>-0.04058853519054895</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.05133527780382417</v>
+        <v>-0.1002015722578072</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -7123,22 +7123,22 @@
         <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.04211966022970388</v>
+        <v>-0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>0.007120255844943923</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.03245786589224523</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>0.02705471471589081</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.01110566633981103</v>
+        <v>0.03437756331861797</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
@@ -7147,28 +7147,28 @@
         <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.08923707421742808</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>0.07849812929132242</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.0162042008774686</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>-0.05811437554401102</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.01293321839164562</v>
+        <v>-0.01236194499351699</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
@@ -7177,79 +7177,79 @@
         <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.1022731784222548</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.06071708026847682</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.03226742915846827</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.09577750444394238</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03483996184837423</v>
+        <v>-0.05169213152623511</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.003950330392922787</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.01664277309480622</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.02701620551850501</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>0.03111925298530424</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.00107761155014325</v>
+        <v>0.01785872423868011</v>
       </c>
       <c r="FU12" t="n">
         <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.06639999245581499</v>
+        <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.04758904338844063</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.04407285745261798</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>0.06828406747529107</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE12" t="n">
         <v>0</v>
@@ -7263,160 +7263,160 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3432705801241963</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.5792437066328294</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1995697307488851</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04746945770183827</v>
+        <v>-0.1274810186006819</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.5091105243607013</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3680534974942039</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.5760069712492182</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.2438296823929931</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1066370326587334</v>
+        <v>-0.05813319017185963</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.5537183048372705</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01953332592551394</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.04755236829990615</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.06072707516135325</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1186599312604206</v>
+        <v>-0.110654745010335</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.02565384337818499</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.008046303610733564</v>
+        <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>-0.0275390229202471</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01465767329048866</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.06238153743155893</v>
+        <v>-0.0215953269672738</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.04212379964103503</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.06991864213980649</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.09769455732862328</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.02198120773098822</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.04682238954549426</v>
+        <v>0.0006567358219328438</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.09125932246545443</v>
       </c>
       <c r="AQ13" t="n">
         <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1822182777616158</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.4681216858609668</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.1011494489645658</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.03577279064155126</v>
+        <v>-0.07547865179868263</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.2411337016768416</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
@@ -7425,76 +7425,76 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.06819528155055325</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1256404465667237</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.07291167116346839</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1033345082392063</v>
+        <v>-0.1561352566964735</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.2061257706689008</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.01510404157849653</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.1601394364002145</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.05968782220914527</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.1246168946854361</v>
+        <v>-0.001140776253103799</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.01590004500465311</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.1670769626240724</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.2485805446403976</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.05527499577761846</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0003417404933257766</v>
+        <v>-0.07451044470466224</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.1461459617618215</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
@@ -7503,25 +7503,25 @@
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.08408179545293328</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.09586491076524317</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.04528803147782855</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.008067230296238207</v>
+        <v>-0.006446215008329582</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.1165299558341483</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,49 +7533,49 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.01195862728725274</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.003115304557728661</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0.009341246037376138</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
         <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.06227205865363874</v>
+        <v>0.01787048106919314</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.02395170569775671</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.07375890007312084</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.07769714451202178</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.04942277710416278</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.02496777127880065</v>
+        <v>-0.005546675415865648</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.121821495728354</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7587,22 +7587,22 @@
         <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.03110853086332568</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.04474311101682561</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.03087504818213558</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01991176419739403</v>
+        <v>0.05347417951927155</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.001451015452034701</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,106 +7611,106 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.01347037469536487</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>0.003472330483317901</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.006629288999435296</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0204641291820321</v>
+        <v>0.03362394520549131</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.007595696074924218</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.02331832274540261</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.06633790709106792</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.02761215556777707</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.01507843382952341</v>
+        <v>0.02092571729254978</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.0604119105792296</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.1312784131694199</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.108232070485527</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.04873942953980276</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.005920213074116993</v>
+        <v>0.02331439806358535</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>0.1265440928468862</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.05208850414602709</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.03263884978846953</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.04443915355183629</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.007238827189374417</v>
+        <v>-0.0146199236652245</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.07942412872194721</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7719,25 +7719,25 @@
         <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.07700986836181679</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.07440339027998528</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.04440346416726845</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.01233321254569748</v>
+        <v>0.005603887711857129</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.1105132503528639</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7749,67 +7749,67 @@
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.03662005713371608</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.003945683446421438</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.05444875109992777</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02781312647186732</v>
+        <v>-0.0100714325585216</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.05596894958747622</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0.0004394672438965375</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>0.005437178968010783</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.04157720409960969</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.006090706084781159</v>
+        <v>-0.009291071496026496</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>0.03707465793457311</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.04816158479138889</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.05130643391850202</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.02819974316699008</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
         <v>0</v>
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.05910585980061403</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8970,22 +8970,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2372067905722254</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.1544188935148341</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05649817277604919</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04376386914190324</v>
+        <v>-0.07434624519471678</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.07191094627322574</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -8997,133 +8997,133 @@
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2285350929358212</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1313128974087503</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.07705858870862499</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.02785376633322195</v>
+        <v>-0.05300828472760943</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0.07991690897304321</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.008076927277695458</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0.01285498906148165</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.02139352973392604</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.0416184202250104</v>
+        <v>-0.009143915894461702</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.008585893434490358</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01196776319802</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>-0.00708099261352923</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.008419700945556411</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.02015638592212684</v>
+        <v>0.01095058767563661</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.008891241431807639</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03213899457917014</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.009017842687066626</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.011279346123311</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.01701411550903637</v>
+        <v>-0.008681091507523003</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0</v>
+        <v>-0.01371395358608961</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.1110630415755762</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.09654125682359209</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.03933486583991688</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.001988382534865602</v>
+        <v>-0.02558823624540049</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>-0.01930057289415121</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>-0</v>
@@ -9132,22 +9132,22 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.03166154688924202</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.0302820312550028</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.01303338815393028</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.03901994290312112</v>
+        <v>-0.04866486776021819</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0</v>
+        <v>-0.0543366550675645</v>
       </c>
       <c r="BI16" t="n">
         <v>0</v>
@@ -9156,52 +9156,52 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.01479182588890099</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.03448809281252849</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.01716447531573268</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.05390098365347353</v>
+        <v>0.01721900225294691</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0</v>
+        <v>0.01589760666920734</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.09191544202297566</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.04605661846881794</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0.03037545434335139</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.01144826724216514</v>
+        <v>-0.01045136467074858</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>-0.01144505830400866</v>
       </c>
       <c r="CA16" t="n">
         <v>-0</v>
@@ -9213,52 +9213,52 @@
         <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0.05336926999235288</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.02315840521840748</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.01750476199619955</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0004949677077865515</v>
+        <v>0.006584241803874971</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>0.01672923858127688</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0.01257068247952118</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0.001485202031397698</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.007486077371770308</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.02979357378408096</v>
+        <v>-0.0073279866417078</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>-0.01263667932660277</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
         <v>-0</v>
@@ -9267,103 +9267,103 @@
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0.04915577856294297</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.01765724039905513</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.01763497659243082</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.01451871412036288</v>
+        <v>0.005379815246833458</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0.01733536584598776</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0.03046954208076598</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.0301532257095577</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.02395270548124817</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.02232611812485087</v>
+        <v>0.04821482242880116</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0</v>
+        <v>0.01088256427121481</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.01041369444152327</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.005855340341051488</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.006712875401953955</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
         <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.01147401446399143</v>
+        <v>0.02068669027473315</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0</v>
+        <v>-0.007959741920477664</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
         <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0.01769638395876147</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.02656132921347498</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0.008832984648837453</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>0</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.003261319687714944</v>
+        <v>0.01415902346671893</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0</v>
+        <v>0.01832937144328398</v>
       </c>
       <c r="EC16" t="n">
         <v>-0</v>
@@ -9375,49 +9375,49 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0.07599519880416251</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.02815144169986555</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.01396964890110287</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.007878307470389435</v>
+        <v>0.006443556042594025</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>0.01244994054135613</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0.03141447554223713</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.009990529301953644</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.03442685173983729</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
         <v>0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.0001716064343023401</v>
+        <v>0.002515272087712165</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0</v>
+        <v>-0.009720591527442599</v>
       </c>
       <c r="EU16" t="n">
         <v>-0</v>
@@ -9426,106 +9426,106 @@
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0.04800117531358204</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.01816137902611428</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.01701960867716534</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
         <v>0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.008625058418928279</v>
+        <v>0.008609350245061197</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0</v>
+        <v>0.0205748469995555</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.03141054375224894</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>-0.01363540422291733</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.01186279643219771</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
         <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.02092363195478575</v>
+        <v>0.01161635186728579</v>
       </c>
       <c r="FL16" t="n">
-        <v>0</v>
+        <v>0.01895218087121359</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.0002284082558285137</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>6.383140881813266e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0.0002682986954523912</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
         <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0005219322587891656</v>
+        <v>-0.001260441709090497</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0</v>
+        <v>0.01957513267543856</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
         <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.01566654859964011</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>0.003079416305427231</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0.01040555782243651</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC16" t="n">
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>-0.0048316269926084</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
